--- a/natmiOut/YoungD0/LR-pairs_lrc2p/F11r-Jam2.xlsx
+++ b/natmiOut/YoungD0/LR-pairs_lrc2p/F11r-Jam2.xlsx
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>9.291465611204281</v>
+        <v>21.870458</v>
       </c>
       <c r="H2">
-        <v>9.291465611204281</v>
+        <v>65.61137400000001</v>
       </c>
       <c r="I2">
-        <v>0.9291615900698662</v>
+        <v>0.9662106525726075</v>
       </c>
       <c r="J2">
-        <v>0.9291615900698662</v>
+        <v>0.9662106525726075</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>25.6862410970704</v>
+        <v>91.47356466666666</v>
       </c>
       <c r="N2">
-        <v>25.6862410970704</v>
+        <v>274.420694</v>
       </c>
       <c r="O2">
-        <v>0.524602459705812</v>
+        <v>0.7914295280104694</v>
       </c>
       <c r="P2">
-        <v>0.524602459705812</v>
+        <v>0.7914295280104694</v>
       </c>
       <c r="Q2">
-        <v>238.6628258345317</v>
+        <v>2000.568754152617</v>
       </c>
       <c r="R2">
-        <v>238.6628258345317</v>
+        <v>18005.11878737356</v>
       </c>
       <c r="S2">
-        <v>0.4874404556148152</v>
+        <v>0.7646876407242263</v>
       </c>
       <c r="T2">
-        <v>0.4874404556148152</v>
+        <v>0.7646876407242263</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,52 +590,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>9.291465611204281</v>
+        <v>21.870458</v>
       </c>
       <c r="H3">
-        <v>9.291465611204281</v>
+        <v>65.61137400000001</v>
       </c>
       <c r="I3">
-        <v>0.9291615900698662</v>
+        <v>0.9662106525726075</v>
       </c>
       <c r="J3">
-        <v>0.9291615900698662</v>
+        <v>0.9662106525726075</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>20.6733019070374</v>
+        <v>20.94207233333333</v>
       </c>
       <c r="N3">
-        <v>20.6733019070374</v>
+        <v>62.82621699999999</v>
       </c>
       <c r="O3">
-        <v>0.4222207908774013</v>
+        <v>0.181190866265331</v>
       </c>
       <c r="P3">
-        <v>0.4222207908774013</v>
+        <v>0.181190866265331</v>
       </c>
       <c r="Q3">
-        <v>192.0852737392819</v>
+        <v>458.0127133991287</v>
       </c>
       <c r="R3">
-        <v>192.0852737392819</v>
+        <v>4122.114420592158</v>
       </c>
       <c r="S3">
-        <v>0.3923113414122027</v>
+        <v>0.1750685451344215</v>
       </c>
       <c r="T3">
-        <v>0.3923113414122027</v>
+        <v>0.1750685451344215</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,52 +652,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>9.291465611204281</v>
+        <v>21.870458</v>
       </c>
       <c r="H4">
-        <v>9.291465611204281</v>
+        <v>65.61137400000001</v>
       </c>
       <c r="I4">
-        <v>0.9291615900698662</v>
+        <v>0.9662106525726075</v>
       </c>
       <c r="J4">
-        <v>0.9291615900698662</v>
+        <v>0.9662106525726075</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>2.60370644667594</v>
+        <v>3.164539666666667</v>
       </c>
       <c r="N4">
-        <v>2.60370644667594</v>
+        <v>9.493619000000001</v>
       </c>
       <c r="O4">
-        <v>0.05317674941678658</v>
+        <v>0.02737960572419959</v>
       </c>
       <c r="P4">
-        <v>0.05317674941678658</v>
+        <v>0.02737960572419959</v>
       </c>
       <c r="Q4">
-        <v>24.19224891096039</v>
+        <v>69.20993186916735</v>
       </c>
       <c r="R4">
-        <v>24.19224891096039</v>
+        <v>622.8893868225061</v>
       </c>
       <c r="S4">
-        <v>0.04940979304284825</v>
+        <v>0.02645446671395959</v>
       </c>
       <c r="T4">
-        <v>0.04940979304284825</v>
+        <v>0.02645446671395959</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,52 +714,52 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.170297691590197</v>
+        <v>0.1926236666666667</v>
       </c>
       <c r="H5">
-        <v>0.170297691590197</v>
+        <v>0.577871</v>
       </c>
       <c r="I5">
-        <v>0.01703004461560572</v>
+        <v>0.008509882997005752</v>
       </c>
       <c r="J5">
-        <v>0.01703004461560572</v>
+        <v>0.008509882997005752</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>25.6862410970704</v>
+        <v>91.47356466666666</v>
       </c>
       <c r="N5">
-        <v>25.6862410970704</v>
+        <v>274.420694</v>
       </c>
       <c r="O5">
-        <v>0.524602459705812</v>
+        <v>0.7914295280104694</v>
       </c>
       <c r="P5">
-        <v>0.524602459705812</v>
+        <v>0.7914295280104694</v>
       </c>
       <c r="Q5">
-        <v>4.374307564460339</v>
+        <v>17.61997342916378</v>
       </c>
       <c r="R5">
-        <v>4.374307564460339</v>
+        <v>158.579760862474</v>
       </c>
       <c r="S5">
-        <v>0.008934003294246479</v>
+        <v>0.006734972683744581</v>
       </c>
       <c r="T5">
-        <v>0.008934003294246479</v>
+        <v>0.006734972683744581</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,52 +776,52 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.170297691590197</v>
+        <v>0.1926236666666667</v>
       </c>
       <c r="H6">
-        <v>0.170297691590197</v>
+        <v>0.577871</v>
       </c>
       <c r="I6">
-        <v>0.01703004461560572</v>
+        <v>0.008509882997005752</v>
       </c>
       <c r="J6">
-        <v>0.01703004461560572</v>
+        <v>0.008509882997005752</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>20.6733019070374</v>
+        <v>20.94207233333333</v>
       </c>
       <c r="N6">
-        <v>20.6733019070374</v>
+        <v>62.82621699999999</v>
       </c>
       <c r="O6">
-        <v>0.4222207908774013</v>
+        <v>0.181190866265331</v>
       </c>
       <c r="P6">
-        <v>0.4222207908774013</v>
+        <v>0.181190866265331</v>
       </c>
       <c r="Q6">
-        <v>3.520615592315687</v>
+        <v>4.033938760445222</v>
       </c>
       <c r="R6">
-        <v>3.520615592315687</v>
+        <v>36.305448844007</v>
       </c>
       <c r="S6">
-        <v>0.007190438906278476</v>
+        <v>0.001541913072044084</v>
       </c>
       <c r="T6">
-        <v>0.007190438906278476</v>
+        <v>0.001541913072044084</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,52 +838,52 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.170297691590197</v>
+        <v>0.1926236666666667</v>
       </c>
       <c r="H7">
-        <v>0.170297691590197</v>
+        <v>0.577871</v>
       </c>
       <c r="I7">
-        <v>0.01703004461560572</v>
+        <v>0.008509882997005752</v>
       </c>
       <c r="J7">
-        <v>0.01703004461560572</v>
+        <v>0.008509882997005752</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>2.60370644667594</v>
+        <v>3.164539666666667</v>
       </c>
       <c r="N7">
-        <v>2.60370644667594</v>
+        <v>9.493619000000001</v>
       </c>
       <c r="O7">
-        <v>0.05317674941678658</v>
+        <v>0.02737960572419959</v>
       </c>
       <c r="P7">
-        <v>0.05317674941678658</v>
+        <v>0.02737960572419959</v>
       </c>
       <c r="Q7">
-        <v>0.443405197447427</v>
+        <v>0.6095652339054445</v>
       </c>
       <c r="R7">
-        <v>0.443405197447427</v>
+        <v>5.486087105149001</v>
       </c>
       <c r="S7">
-        <v>0.0009056024150807607</v>
+        <v>0.0002329972412170875</v>
       </c>
       <c r="T7">
-        <v>0.0009056024150807607</v>
+        <v>0.0002329972412170875</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,52 +900,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.538074949780761</v>
+        <v>0.572208</v>
       </c>
       <c r="H8">
-        <v>0.538074949780761</v>
+        <v>1.716624</v>
       </c>
       <c r="I8">
-        <v>0.05380836531452813</v>
+        <v>0.02527946443038672</v>
       </c>
       <c r="J8">
-        <v>0.05380836531452813</v>
+        <v>0.02527946443038671</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>25.6862410970704</v>
+        <v>91.47356466666666</v>
       </c>
       <c r="N8">
-        <v>25.6862410970704</v>
+        <v>274.420694</v>
       </c>
       <c r="O8">
-        <v>0.524602459705812</v>
+        <v>0.7914295280104694</v>
       </c>
       <c r="P8">
-        <v>0.524602459705812</v>
+        <v>0.7914295280104694</v>
       </c>
       <c r="Q8">
-        <v>13.82112288836267</v>
+        <v>52.341905490784</v>
       </c>
       <c r="R8">
-        <v>13.82112288836267</v>
+        <v>471.077149417056</v>
       </c>
       <c r="S8">
-        <v>0.02822800079675035</v>
+        <v>0.02000691460249841</v>
       </c>
       <c r="T8">
-        <v>0.02822800079675035</v>
+        <v>0.02000691460249841</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,52 +962,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.538074949780761</v>
+        <v>0.572208</v>
       </c>
       <c r="H9">
-        <v>0.538074949780761</v>
+        <v>1.716624</v>
       </c>
       <c r="I9">
-        <v>0.05380836531452813</v>
+        <v>0.02527946443038672</v>
       </c>
       <c r="J9">
-        <v>0.05380836531452813</v>
+        <v>0.02527946443038671</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>20.6733019070374</v>
+        <v>20.94207233333333</v>
       </c>
       <c r="N9">
-        <v>20.6733019070374</v>
+        <v>62.82621699999999</v>
       </c>
       <c r="O9">
-        <v>0.4222207908774013</v>
+        <v>0.181190866265331</v>
       </c>
       <c r="P9">
-        <v>0.4222207908774013</v>
+        <v>0.181190866265331</v>
       </c>
       <c r="Q9">
-        <v>11.12378588543166</v>
+        <v>11.983221325712</v>
       </c>
       <c r="R9">
-        <v>11.12378588543166</v>
+        <v>107.848991931408</v>
       </c>
       <c r="S9">
-        <v>0.0227190105589202</v>
+        <v>0.004580408058865392</v>
       </c>
       <c r="T9">
-        <v>0.0227190105589202</v>
+        <v>0.004580408058865391</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,52 +1024,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.538074949780761</v>
+        <v>0.572208</v>
       </c>
       <c r="H10">
-        <v>0.538074949780761</v>
+        <v>1.716624</v>
       </c>
       <c r="I10">
-        <v>0.05380836531452813</v>
+        <v>0.02527946443038672</v>
       </c>
       <c r="J10">
-        <v>0.05380836531452813</v>
+        <v>0.02527946443038671</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>2.60370644667594</v>
+        <v>3.164539666666667</v>
       </c>
       <c r="N10">
-        <v>2.60370644667594</v>
+        <v>9.493619000000001</v>
       </c>
       <c r="O10">
-        <v>0.05317674941678658</v>
+        <v>0.02737960572419959</v>
       </c>
       <c r="P10">
-        <v>0.05317674941678658</v>
+        <v>0.02737960572419959</v>
       </c>
       <c r="Q10">
-        <v>1.400989215539</v>
+        <v>1.810774913584</v>
       </c>
       <c r="R10">
-        <v>1.400989215539</v>
+        <v>16.296974222256</v>
       </c>
       <c r="S10">
-        <v>0.002861353958857573</v>
+        <v>0.0006921417690229162</v>
       </c>
       <c r="T10">
-        <v>0.002861353958857573</v>
+        <v>0.0006921417690229161</v>
       </c>
     </row>
   </sheetData>
